--- a/Lab 4/BlackBoxTesting.xlsx
+++ b/Lab 4/BlackBoxTesting.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOSHHH\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siekm\Documents\GitHub\kinderfinder\Lab 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25363847-3DC0-4AF4-BE4B-55A24013A059}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF30DF1-B60F-4648-B2B2-C9E635DCA6A7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{523B2903-A79B-474F-AA7D-4D6A12C17B1B}"/>
+    <workbookView xWindow="14124" yWindow="3672" windowWidth="17280" windowHeight="8964" xr2:uid="{523B2903-A79B-474F-AA7D-4D6A12C17B1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -653,22 +653,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E0A278-044D-4558-AA2A-9BEC7E1F75D6}">
   <dimension ref="B1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="74" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="2"/>
-    <col min="2" max="2" width="42" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" style="2"/>
+    <col min="2" max="2" width="53.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.81640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.26953125" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="2"/>
+    <col min="5" max="5" width="20.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.21875" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="I1" s="14" t="s">
         <v>47</v>
       </c>
@@ -676,7 +676,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="s">
         <v>3</v>
       </c>
@@ -695,7 +695,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -722,7 +722,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="2:14" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:14" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>16</v>
       </c>
@@ -749,7 +749,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="2:14" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B5" s="18" t="s">
         <v>17</v>
       </c>
@@ -773,7 +773,7 @@
       <c r="L5" s="16"/>
       <c r="M5" s="16"/>
     </row>
-    <row r="6" spans="2:14" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:14" ht="72" x14ac:dyDescent="0.3">
       <c r="B6" s="18" t="s">
         <v>18</v>
       </c>
@@ -797,7 +797,7 @@
       <c r="L6" s="16"/>
       <c r="M6" s="16"/>
     </row>
-    <row r="7" spans="2:14" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B7" s="18" t="s">
         <v>19</v>
       </c>
@@ -821,7 +821,7 @@
       <c r="L7" s="16"/>
       <c r="M7" s="16"/>
     </row>
-    <row r="8" spans="2:14" ht="58" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>20</v>
       </c>
@@ -838,11 +838,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="E9" s="5"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="19" t="s">
         <v>28</v>
       </c>
@@ -851,7 +851,7 @@
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>2</v>
       </c>
@@ -868,7 +868,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:14" ht="72" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
         <v>25</v>
       </c>
@@ -885,7 +885,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="2:14" ht="58" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B13" s="7" t="s">
         <v>24</v>
       </c>
@@ -902,7 +902,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="2:14" ht="58" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
         <v>23</v>
       </c>
@@ -919,7 +919,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="2:14" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:14" ht="72" x14ac:dyDescent="0.3">
       <c r="B15" s="11" t="s">
         <v>21</v>
       </c>
@@ -936,14 +936,14 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="2:14" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:14" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="8"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="10"/>
       <c r="F16" s="9"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="19" t="s">
         <v>29</v>
       </c>
@@ -952,7 +952,7 @@
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>2</v>
       </c>
@@ -969,7 +969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6" ht="72" x14ac:dyDescent="0.3">
       <c r="B19" s="7" t="s">
         <v>30</v>
       </c>
@@ -986,7 +986,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6" ht="72" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
         <v>31</v>
       </c>
@@ -1003,14 +1003,14 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="27" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
       <c r="E21" s="13"/>
       <c r="F21" s="12"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="19" t="s">
         <v>35</v>
       </c>
@@ -1019,7 +1019,7 @@
       <c r="E22" s="19"/>
       <c r="F22" s="19"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
         <v>2</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="87" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
         <v>36</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B25" s="7" t="s">
         <v>37</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="19" t="s">
         <v>42</v>
       </c>
@@ -1079,7 +1079,7 @@
       <c r="E27" s="19"/>
       <c r="F27" s="19"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
         <v>2</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:6" ht="72" x14ac:dyDescent="0.3">
       <c r="B29" s="7" t="s">
         <v>25</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B30" s="7" t="s">
         <v>24</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="2:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B31" s="7" t="s">
         <v>23</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:6" ht="72" x14ac:dyDescent="0.3">
       <c r="B32" s="11" t="s">
         <v>21</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="19" t="s">
         <v>43</v>
       </c>
@@ -1173,7 +1173,7 @@
       <c r="E34" s="19"/>
       <c r="F34" s="19"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" s="3" t="s">
         <v>2</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:6" ht="72" x14ac:dyDescent="0.3">
       <c r="B36" s="7" t="s">
         <v>30</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:6" ht="72" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
         <v>31</v>
       </c>
@@ -1235,4 +1235,16 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9AEF327-0174-47A5-9DC5-896F17F88314}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Lab 4/BlackBoxTesting.xlsx
+++ b/Lab 4/BlackBoxTesting.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siekm\Documents\GitHub\kinderfinder\Lab 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ken\Documents\GitHub\kinderfind\Lab 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF30DF1-B60F-4648-B2B2-C9E635DCA6A7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988676F3-9EF6-4799-BE70-90FE7DFCBE4D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14124" yWindow="3672" windowWidth="17280" windowHeight="8964" xr2:uid="{523B2903-A79B-474F-AA7D-4D6A12C17B1B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{523B2903-A79B-474F-AA7D-4D6A12C17B1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -197,7 +197,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -341,8 +341,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{5703CE09-8178-4C36-A9B1-49631431786C}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -653,22 +681,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E0A278-044D-4558-AA2A-9BEC7E1F75D6}">
   <dimension ref="B1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="74" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" style="2"/>
-    <col min="2" max="2" width="53.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="2"/>
+    <col min="2" max="2" width="53.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.21875" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.77734375" style="2"/>
+    <col min="5" max="5" width="20.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I1" s="14" t="s">
         <v>47</v>
       </c>
@@ -676,7 +704,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="19" t="s">
         <v>3</v>
       </c>
@@ -695,7 +723,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -722,7 +750,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="2:14" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>16</v>
       </c>
@@ -749,7 +777,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="2:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:14" ht="60" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
         <v>17</v>
       </c>
@@ -773,7 +801,7 @@
       <c r="L5" s="16"/>
       <c r="M5" s="16"/>
     </row>
-    <row r="6" spans="2:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:14" ht="75" x14ac:dyDescent="0.25">
       <c r="B6" s="18" t="s">
         <v>18</v>
       </c>
@@ -797,7 +825,7 @@
       <c r="L6" s="16"/>
       <c r="M6" s="16"/>
     </row>
-    <row r="7" spans="2:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:14" ht="45" x14ac:dyDescent="0.25">
       <c r="B7" s="18" t="s">
         <v>19</v>
       </c>
@@ -821,7 +849,7 @@
       <c r="L7" s="16"/>
       <c r="M7" s="16"/>
     </row>
-    <row r="8" spans="2:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:14" ht="75" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>20</v>
       </c>
@@ -838,11 +866,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E9" s="5"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="19" t="s">
         <v>28</v>
       </c>
@@ -851,7 +879,7 @@
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>2</v>
       </c>
@@ -868,7 +896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" ht="90" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
         <v>25</v>
       </c>
@@ -885,7 +913,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="2:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" ht="60" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
         <v>24</v>
       </c>
@@ -902,7 +930,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="2:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" ht="60" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
         <v>23</v>
       </c>
@@ -919,7 +947,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="2:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" ht="90" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
         <v>21</v>
       </c>
@@ -936,14 +964,14 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="2:14" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="8"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="10"/>
       <c r="F16" s="9"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="19" t="s">
         <v>29</v>
       </c>
@@ -952,7 +980,7 @@
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>2</v>
       </c>
@@ -969,7 +997,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
         <v>30</v>
       </c>
@@ -986,7 +1014,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
         <v>31</v>
       </c>
@@ -1003,14 +1031,14 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" ht="27" x14ac:dyDescent="0.25">
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
       <c r="E21" s="13"/>
       <c r="F21" s="12"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="19" t="s">
         <v>35</v>
       </c>
@@ -1019,7 +1047,7 @@
       <c r="E22" s="19"/>
       <c r="F22" s="19"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>2</v>
       </c>
@@ -1036,7 +1064,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" ht="90" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
         <v>36</v>
       </c>
@@ -1053,7 +1081,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
         <v>37</v>
       </c>
@@ -1070,7 +1098,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="19" t="s">
         <v>42</v>
       </c>
@@ -1079,7 +1107,7 @@
       <c r="E27" s="19"/>
       <c r="F27" s="19"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
         <v>2</v>
       </c>
@@ -1096,7 +1124,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6" ht="90" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
         <v>25</v>
       </c>
@@ -1113,7 +1141,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B30" s="7" t="s">
         <v>24</v>
       </c>
@@ -1130,7 +1158,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="2:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B31" s="7" t="s">
         <v>23</v>
       </c>
@@ -1147,7 +1175,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="2:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:6" ht="90" x14ac:dyDescent="0.25">
       <c r="B32" s="11" t="s">
         <v>21</v>
       </c>
@@ -1164,7 +1192,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="19" t="s">
         <v>43</v>
       </c>
@@ -1173,7 +1201,7 @@
       <c r="E34" s="19"/>
       <c r="F34" s="19"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
         <v>2</v>
       </c>
@@ -1190,7 +1218,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="2:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B36" s="7" t="s">
         <v>30</v>
       </c>
@@ -1207,7 +1235,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="2:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:6" ht="75" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="s">
         <v>31</v>
       </c>
@@ -1243,7 +1271,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
